--- a/biology/Zoologie/Chaeropus_ecaudatus/Chaeropus_ecaudatus.xlsx
+++ b/biology/Zoologie/Chaeropus_ecaudatus/Chaeropus_ecaudatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bandicoot à pied de porc
-Le Bandicoot à pied de porc[1] (Chaeropus ecaudatus) est un petit marsupial herbivore des plaines arides ou semi-arides de l'intérieur de l'Australie. C'est la seule espèce du genre monospéfique Chaeropus, dans la famille des Chaeropodidae.
+Le Bandicoot à pied de porc (Chaeropus ecaudatus) est un petit marsupial herbivore des plaines arides ou semi-arides de l'intérieur de l'Australie. C'est la seule espèce du genre monospéfique Chaeropus, dans la famille des Chaeropodidae.
 Il est considéré comme disparu depuis 2004.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De la grandeur d'un chaton, il ressemblait presque à première vue à un bilbi, et avait des pattes longues et menues, des oreilles grandes et pointues et une longue queue. Un examen plus approfondi montrait pourtant que le bandicoot à pieds de cochon présentait des caractères très inhabituels pour un marsupial. Les pieds antérieurs avaient deux orteils fonctionnels avec des ongles semblables à des sabots, assez proches de ceux des porcs ou des cerfs. Les pieds postérieurs avaient un quatrième orteil élargi avec une griffe lourde et de la forme d'un tout petit sabot de cheval, les autres orteils étant vestigiaux : seuls les deuxième et troisième orteils, soudés, étaient fonctionnels et non seulement pour la locomotion mais pour aussi le toilettage.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était répandu dans un large type d'habitats : des forêts herbeuses et des pâturages en plaine aux régions à spinifex.
 </t>
@@ -575,7 +591,9 @@
           <t>Découverte et extinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier exemplaire a été recueilli en 1836 par le major Mitchel dans le Nord de l'État de Victoria près du confluent du fleuve Murray avec son affluent le Murrumbidgee. Peu de scientifiques ont eu la possibilité d'observer des bandicoots à pieds de cochon vivants et le seul récit existant de son comportement laisse à penser qu'il se déplaçait « comme un vieux cheval fatigué, dans un petit galop, en ayant l'air de tirer derrière lui ses quartiers arrière », mais cela contredit les affirmations des Aborigènes d'Australie centrale, qui le connaissaient bien et ont rapporté qu'il faisait des nids avec de l'herbe pour y dormir pendant le jour et que, s'il était dérangé, il était capable de s'enfuir à très grande vitesse. On pense qu'il se mettait à l'abri des prédateurs dans des arbres creux et qu'il creusait des terriers courts et rectilignes qui se terminaient par un nid.
 Un petit nombre d'exemplaires ont été recueillis dans la deuxième moitié du XIXe siècle, surtout dans le Nord-Ouest de l'État de Victoria, et également dans les contrées arides de l'Australie-Méridionale, de l'Australie occidentale et du Territoire du Nord. Le dernier exemplaire dont on soit certain a été recueilli en 1901. Selon les aborigènes il aurait survécu pendant quelque 20 ans encore en Australie méridionale et jusqu'aux années 1950 mais pas plus tard dans les déserts les plus reculés de l'Australie occidentale.
@@ -610,7 +628,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était placée auparavant par McKenna et Bell (1997) dans la famille des Peramelidae, avec les bilbis, et la sous-famille des Chaeropodinae. Pourtant sa forme est tout à fait différente de celle des vrais bandicoots et bilbis et des preuves récentes par analyse moléculaire confortent cette distinction. On pense qu'il s'agit d'un groupe-sœur de ce qui reste des Peramelemorphia et on a créé pour lui seul la famille des Chaeropodidae.
 </t>
